--- a/FCOV_TEMP.xlsx
+++ b/FCOV_TEMP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inore_bins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ingore00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +191,46 @@
   </si>
   <si>
     <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_bins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION_EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">at_least </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to cover port enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6'b111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -570,9 +606,11 @@
     <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,18 +630,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -615,18 +659,30 @@
         <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -634,7 +690,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F5" t="s">
         <v>11</v>
       </c>
@@ -642,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -658,110 +714,130 @@
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>44</v>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/FCOV_TEMP.xlsx
+++ b/FCOV_TEMP.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="cg_AAA" sheetId="1" r:id="rId1"/>
+    <sheet name="cg_BBB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ignore_bins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +226,34 @@
   </si>
   <si>
     <t>6'b111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +283,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,9 +315,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -590,254 +620,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>43</v>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -849,25 +903,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
